--- a/Data/EC/NIT-9005052894.xlsx
+++ b/Data/EC/NIT-9005052894.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04719C11-AA18-4EE5-BD44-03B792CCA9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54383124-2625-4D81-BB1C-029F52B5B5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A2F56C43-407F-4215-81E6-59A8B2EF35AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4ABDD32C-CCB6-4E67-BB20-E8EC7BFF001F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,24 @@
     <t>FACILIDADES TEMPORALES DE COLOMBIA S.A.S</t>
   </si>
   <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>386447</t>
+  </si>
+  <si>
+    <t>HUGO LINO GONZALEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
@@ -71,43 +89,25 @@
     <t>CRISTIAN RAMON FLOREZ ECHENIQUE</t>
   </si>
   <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
     <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>386447</t>
-  </si>
-  <si>
-    <t>HUGO LINO GONZALEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F208F66-7C40-8AD5-7E7C-7B6A0D5FCCAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736DF5AC-3F5C-61F7-0FEF-F13E8045EA70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DFE5AF-4768-478F-B1E7-63189C41582D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958C0708-3963-4A31-9B0D-179D8C872ED7}">
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1050,10 +1050,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>64000</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1073,10 +1073,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1096,10 +1096,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,16 +1107,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>80000</v>
@@ -1130,16 +1130,16 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>80000</v>
@@ -1153,16 +1153,16 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>80000</v>
@@ -1176,16 +1176,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>80000</v>
@@ -1199,22 +1199,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1222,22 +1222,22 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1245,22 +1245,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="24">
-        <v>40000</v>
+        <v>64000</v>
       </c>
       <c r="G25" s="24">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
